--- a/Output.xlsx
+++ b/Output.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stichtingfontys-my.sharepoint.com/personal/433534_student_fontys_nl/Documents/Documenten/Operations Research/OR5/RunningDinnerV2/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_23F921ED01E38919172C4C056DDBC9F66C167C6B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE9B2547-75E6-4605-84B4-E4F5985CE8BE}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -553,8 +559,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,17 +619,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -661,7 +675,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -695,6 +709,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -729,9 +744,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -904,14 +920,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -937,7 +966,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -954,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -974,7 +1003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -994,7 +1023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1017,7 +1046,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1040,7 +1069,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1063,7 +1092,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1083,7 +1112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1100,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1117,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1140,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1160,7 +1189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1186,7 +1215,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1209,7 +1238,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1235,7 +1264,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1258,7 +1287,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1281,7 +1310,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1304,7 +1333,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1330,7 +1359,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1350,7 +1379,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1373,7 +1402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1390,7 +1419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1413,7 +1442,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1436,7 +1465,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1459,7 +1488,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1482,7 +1511,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1502,7 +1531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1525,7 +1554,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1545,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1568,7 +1597,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1591,7 +1620,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1611,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1634,7 +1663,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1654,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1671,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1694,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1714,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1737,7 +1766,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1760,7 +1789,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1780,7 +1809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1806,7 +1835,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1823,7 +1852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1846,7 +1875,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1866,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1889,7 +1918,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1912,7 +1941,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1935,7 +1964,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1958,7 +1987,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1981,7 +2010,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2001,7 +2030,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2021,7 +2050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2044,7 +2073,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2061,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2087,7 +2116,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2110,7 +2139,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2133,7 +2162,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2156,7 +2185,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2176,7 +2205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2199,7 +2228,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2216,7 +2245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2236,7 +2265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2256,7 +2285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2279,7 +2308,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2302,7 +2331,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2325,7 +2354,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2345,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2368,7 +2397,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2391,7 +2420,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2411,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2431,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2454,7 +2483,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2474,7 +2503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2497,7 +2526,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2520,7 +2549,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2543,7 +2572,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2566,7 +2595,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2589,7 +2618,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2612,7 +2641,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2635,7 +2664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2655,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2678,7 +2707,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2701,7 +2730,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2718,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2741,7 +2770,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2761,7 +2790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2787,7 +2816,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2807,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2830,7 +2859,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2853,7 +2882,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2876,7 +2905,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2896,7 +2925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2913,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2936,7 +2965,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2959,7 +2988,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2976,7 +3005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2993,7 +3022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3016,7 +3045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3039,7 +3068,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3062,7 +3091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3085,7 +3114,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3108,7 +3137,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3128,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3151,7 +3180,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3174,7 +3203,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3197,7 +3226,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3220,7 +3249,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3246,7 +3275,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3269,7 +3298,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3292,7 +3321,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3312,7 +3341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -499,12 +499,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>VW_62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>WO_53</t>
+          <t>WO_75</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -529,17 +529,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>VW_70</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>VW_3</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -564,17 +564,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>VW_6</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>WO_45</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>VW_25</t>
+          <t>WO_53</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -599,17 +599,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>VW_57</t>
+          <t>VW_23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>VW_62</t>
+          <t>WO_52</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>WO_13</t>
+          <t>VW_39</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -634,17 +634,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>VW_20</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>WO_26</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -675,17 +675,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>WO_61</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>VW_3</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -716,17 +716,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WO_11</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>WO_61</t>
+          <t>WO_52</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>WO_41</t>
+          <t>WO_50</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -757,17 +757,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>WO_11</t>
+          <t>VW_23</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>VW_12</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>VW_13</t>
+          <t>WO_49</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -798,17 +798,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>WO_11</t>
+          <t>VW_9</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>WO_38</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>WO_13</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -839,17 +839,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>VW_27</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>WO_24</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>WO_49</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -880,17 +880,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>VW_9</t>
+          <t>WO_85</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>VW_18</t>
+          <t>WO_26</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>WO_1</t>
+          <t>VW_72</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -921,17 +921,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_51</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>VW_18</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>VW_3</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -962,17 +962,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>VW_20</t>
+          <t>WO_27</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>WO_71</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>WO_53</t>
+          <t>WO_75</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1003,17 +1003,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>VW_20</t>
+          <t>WO_27</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>VW_62</t>
+          <t>WO_79</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>VW_72</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1044,12 +1044,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>VW_27</t>
+          <t>VW_57</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>WO_61</t>
+          <t>WO_26</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1085,17 +1085,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>VW_20</t>
+          <t>WO_85</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>WO_45</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>VW_21</t>
+          <t>WO_13</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1126,17 +1126,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>VW_23</t>
+          <t>WO_7</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>VW_35</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>VW_25</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>VW_23</t>
+          <t>VW_9</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>VW_35</t>
+          <t>WO_52</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1208,17 +1208,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>WO_11</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>WO_45</t>
+          <t>WO_52</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>VW_25</t>
+          <t>VW_15</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1249,17 +1249,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>VW_23</t>
+          <t>WO_27</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>VW_35</t>
+          <t>WO_26</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>VW_25</t>
+          <t>WO_49</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WO_36</t>
+          <t>WO_69</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1300,7 +1300,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>WO_75</t>
+          <t>VW_3</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1331,17 +1331,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>VW_27</t>
+          <t>WO_11</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>VW_21</t>
+          <t>VW_72</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>WO_50</t>
+          <t>VW_3</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1413,17 +1413,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>VW_20</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>VW_35</t>
+          <t>VW_62</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>WO_50</t>
+          <t>WO_20</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1454,17 +1454,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>VW_57</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>WO_38</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>WO_87</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1495,17 +1495,17 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>WO_27</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>WO_77</t>
+          <t>WO_79</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>WO_50</t>
+          <t>WO_49</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1536,17 +1536,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>VW_9</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>WO_79</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_16</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1577,17 +1577,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>WO_85</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>WO_52</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>WO_49</t>
+          <t>VW_25</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1618,17 +1618,17 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>VW_46</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>VW_70</t>
+          <t>WO_45</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>VW_33</t>
+          <t>WO_49</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1659,17 +1659,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WO_33</t>
+          <t>WO_23</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>WO_45</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>VW_33</t>
+          <t>VW_13</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1700,17 +1700,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>VW_35</t>
+          <t>WO_24</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>WO_41</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1741,17 +1741,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>WO_51</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>VW_35</t>
+          <t>WO_71</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>WO_1</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1782,17 +1782,17 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>WO_7</t>
+          <t>VW_27</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>VW_62</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>WO_50</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1823,17 +1823,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>VW_70</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>VW_33</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>WO_51</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>VW_70</t>
+          <t>WO_38</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>WO_20</t>
+          <t>WO_50</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1905,17 +1905,17 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>VW_57</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>WO_52</t>
+          <t>VW_18</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>WO_49</t>
+          <t>VW_72</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1946,17 +1946,17 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>VW_27</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>VW_70</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>VW_3</t>
+          <t>WO_13</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1992,12 +1992,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>WO_53</t>
+          <t>VW_3</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2028,17 +2028,17 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>WO_51</t>
+          <t>WO_85</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>VW_62</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>WO_55</t>
+          <t>WO_41</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2069,17 +2069,17 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>WO_51</t>
+          <t>VW_46</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>WO_55</t>
+          <t>WO_20</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>VW_23</t>
+          <t>VW_9</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>WO_55</t>
+          <t>WO_81</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2151,17 +2151,17 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>WO_7</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>WO_26</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>WO_87</t>
+          <t>WO_13</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2192,17 +2192,17 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>VW_57</t>
+          <t>WO_27</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>WO_38</t>
+          <t>VW_12</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>WO_87</t>
+          <t>VW_39</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2233,17 +2233,17 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>VW_57</t>
+          <t>WO_23</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>WO_16</t>
+          <t>WO_53</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2274,17 +2274,17 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>VW_6</t>
+          <t>VW_27</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>WO_45</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>VW_25</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2315,17 +2315,17 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>WO_7</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>VW_62</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>VW_21</t>
+          <t>WO_41</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2356,17 +2356,17 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>WO_27</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>VW_62</t>
+          <t>WO_79</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>WO_49</t>
+          <t>WO_87</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2397,17 +2397,17 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>WO_23</t>
+          <t>WO_69</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>WO_71</t>
+          <t>VW_70</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>VW_33</t>
+          <t>WO_16</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>VW_20</t>
+          <t>WO_23</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>WO_75</t>
+          <t>VW_15</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -2467,17 +2467,17 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>WO_51</t>
+          <t>VW_27</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>VW_70</t>
+          <t>VW_18</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>WO_20</t>
+          <t>WO_53</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2508,17 +2508,17 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>WO_51</t>
+          <t>WO_33</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>VW_70</t>
+          <t>WO_71</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>WO_1</t>
+          <t>VW_33</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2549,17 +2549,17 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>VW_20</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>WO_45</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>VW_72</t>
+          <t>WO_75</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2590,17 +2590,17 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>VW_6</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>WO_38</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>VW_72</t>
+          <t>WO_81</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2631,17 +2631,17 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>VW_23</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>VW_70</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>WO_16</t>
+          <t>WO_75</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2672,17 +2672,17 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>VW_20</t>
+          <t>VW_46</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>WO_38</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>VW_21</t>
+          <t>VW_33</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2713,17 +2713,17 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>VW_9</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>VW_70</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>WO_55</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2754,17 +2754,17 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>VW_9</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>WO_61</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>WO_75</t>
+          <t>VW_13</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2795,17 +2795,17 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>VW_23</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>VW_70</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>WO_1</t>
+          <t>WO_81</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2836,17 +2836,17 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>WO_7</t>
+          <t>VW_57</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>VW_62</t>
+          <t>VW_12</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>WO_1</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2877,17 +2877,17 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>WO_11</t>
+          <t>WO_23</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>WO_38</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>VW_3</t>
+          <t>VW_39</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2918,17 +2918,17 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>VW_6</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>WO_13</t>
+          <t>WO_75</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -2959,17 +2959,17 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>VW_27</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>WO_52</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>WO_13</t>
+          <t>WO_20</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3000,17 +3000,17 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
+          <t>WO_36</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>VW_35</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>WO_21</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>VW_32</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>WO_16</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3041,12 +3041,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>VW_57</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>VW_35</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3082,17 +3082,17 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>VW_23</t>
+          <t>WO_11</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>VW_35</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>WO_20</t>
+          <t>VW_25</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3123,17 +3123,17 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>WO_27</t>
+          <t>WO_7</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>WO_24</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>WO_20</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3164,12 +3164,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_69</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3205,17 +3205,17 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>VW_6</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>WO_79</t>
+          <t>VW_35</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>VW_15</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3246,17 +3246,17 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>WO_23</t>
+          <t>WO_27</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>VW_70</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>WO_20</t>
+          <t>WO_41</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3287,17 +3287,17 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>WO_23</t>
+          <t>WO_7</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>WO_77</t>
+          <t>VW_70</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>WO_49</t>
+          <t>WO_16</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3328,17 +3328,17 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>WO_27</t>
+          <t>WO_33</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>WO_24</t>
+          <t>VW_70</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>VW_25</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3369,17 +3369,17 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>WO_27</t>
+          <t>VW_57</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>WO_24</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>WO_87</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3410,17 +3410,17 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>VW_20</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>WO_26</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>VW_25</t>
+          <t>VW_33</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3451,17 +3451,17 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>WO_11</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>WO_26</t>
+          <t>VW_18</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>VW_13</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3492,17 +3492,17 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>WO_27</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>WO_52</t>
+          <t>WO_38</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>VW_3</t>
+          <t>VW_72</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3533,17 +3533,17 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>WO_27</t>
+          <t>WO_85</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>WO_79</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>VW_3</t>
+          <t>WO_49</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3574,17 +3574,17 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>VW_6</t>
+          <t>WO_33</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>WO_41</t>
+          <t>VW_3</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3615,17 +3615,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>VW_9</t>
+          <t>WO_85</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>VW_62</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>WO_75</t>
+          <t>WO_87</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3656,17 +3656,17 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>VW_27</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>WO_52</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>VW_25</t>
+          <t>WO_50</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -3691,17 +3691,17 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>VW_20</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>VW_12</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>WO_81</t>
+          <t>WO_20</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -3726,17 +3726,17 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>WO_33</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>WO_49</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3767,17 +3767,17 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>WO_33</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>WO_77</t>
+          <t>VW_12</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>WO_13</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3813,12 +3813,12 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>WO_45</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>WO_87</t>
+          <t>VW_72</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3849,17 +3849,17 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>VW_6</t>
+          <t>WO_11</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>WO_71</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>WO_1</t>
+          <t>VW_39</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -3890,17 +3890,17 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>VW_9</t>
+          <t>VW_46</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>WO_52</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>WO_41</t>
+          <t>WO_13</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -3931,17 +3931,17 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>VW_27</t>
+          <t>WO_7</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>WO_38</t>
+          <t>VW_18</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>WO_41</t>
+          <t>VW_15</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -3972,17 +3972,17 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>WO_23</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>WO_24</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>VW_33</t>
+          <t>WO_81</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4013,17 +4013,17 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>VW_9</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>WO_26</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4054,17 +4054,17 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>VW_46</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>WO_24</t>
+          <t>WO_45</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>WO_41</t>
+          <t>VW_39</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4095,17 +4095,17 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>WO_36</t>
+          <t>VW_23</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>WO_24</t>
+          <t>WO_61</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>WO_41</t>
+          <t>WO_55</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4136,17 +4136,17 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>VW_20</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>WO_45</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>WO_13</t>
+          <t>VW_39</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4177,17 +4177,17 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>WO_36</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>WO_45</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>WO_50</t>
+          <t>VW_13</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4218,17 +4218,17 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>VW_57</t>
+          <t>VW_20</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>WO_49</t>
+          <t>WO_53</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4259,17 +4259,17 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>VW_57</t>
+          <t>VW_46</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>WO_24</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>WO_49</t>
+          <t>WO_16</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4300,17 +4300,17 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_51</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>WO_77</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>WO_50</t>
+          <t>VW_25</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4341,17 +4341,17 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>WO_11</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>WO_26</t>
+          <t>VW_18</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>WO_50</t>
+          <t>WO_16</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4382,12 +4382,12 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>WO_51</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>WO_61</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4423,17 +4423,17 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>WO_51</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>WO_24</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>VW_21</t>
+          <t>VW_33</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4464,17 +4464,17 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>WO_69</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>WO_52</t>
+          <t>WO_26</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>VW_72</t>
+          <t>WO_87</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4505,17 +4505,17 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>WO_27</t>
+          <t>WO_69</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>WO_52</t>
+          <t>WO_61</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>VW_3</t>
+          <t>VW_15</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4546,17 +4546,17 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>WO_36</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>WO_26</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>WO_53</t>
+          <t>VW_15</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4587,17 +4587,17 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>WO_36</t>
+          <t>VW_23</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>WO_26</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>WO_53</t>
+          <t>WO_20</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4628,17 +4628,17 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>WO_69</t>
+          <t>WO_51</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>WO_71</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>WO_55</t>
+          <t>VW_25</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4669,17 +4669,17 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>WO_7</t>
+          <t>WO_33</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>VW_18</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>VW_13</t>
+          <t>VW_39</t>
         </is>
       </c>
       <c r="H105" t="inlineStr"/>
@@ -4704,17 +4704,17 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>WO_7</t>
+          <t>WO_69</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>VW_18</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>VW_13</t>
+          <t>WO_55</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
@@ -4739,17 +4739,17 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>WO_33</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>WO_61</t>
+          <t>VW_12</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>VW_33</t>
+          <t>VW_15</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4780,17 +4780,17 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>WO_7</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>WO_61</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>WO_49</t>
+          <t>WO_41</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4821,17 +4821,17 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>VW_9</t>
+          <t>WO_85</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>WO_71</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>WO_16</t>
+          <t>VW_33</t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
@@ -4856,17 +4856,17 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>WO_33</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>WO_71</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>WO_53</t>
+          <t>WO_41</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
@@ -4891,17 +4891,17 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>WO_69</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>VW_62</t>
+          <t>WO_79</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>WO_41</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -4932,17 +4932,17 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>WO_69</t>
+          <t>VW_9</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>WO_24</t>
+          <t>VW_18</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>WO_16</t>
+          <t>WO_87</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -4973,12 +4973,12 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>WO_7</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>VW_18</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -5014,17 +5014,17 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>VW_23</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>VW_18</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>VW_13</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5055,17 +5055,17 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>WO_23</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>WO_71</t>
+          <t>VW_35</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>VW_33</t>
+          <t>WO_55</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5096,17 +5096,17 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>WO_23</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>WO_71</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>VW_13</t>
+          <t>WO_50</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5137,17 +5137,17 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>WO_69</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>WO_75</t>
+          <t>WO_41</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5178,17 +5178,17 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>WO_79</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>WO_75</t>
+          <t>WO_50</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -5219,17 +5219,17 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>WO_77</t>
+          <t>WO_24</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>VW_72</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -5260,17 +5260,17 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>WO_69</t>
+          <t>WO_27</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>WO_77</t>
+          <t>WO_24</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>WO_81</t>
+          <t>VW_13</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -5301,17 +5301,17 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>WO_23</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>WO_79</t>
+          <t>WO_61</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>VW_21</t>
+          <t>WO_53</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -5342,17 +5342,17 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>WO_33</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>WO_79</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>VW_13</t>
+          <t>VW_39</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>WO_69</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -5393,7 +5393,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>VW_3</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>VW_23</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>WO_81</t>
+          <t>WO_55</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -5465,17 +5465,17 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>WO_51</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>VW_35</t>
+          <t>VW_12</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>VW_3</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -5506,17 +5506,17 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>VW_23</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>WO_38</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>WO_81</t>
+          <t>VW_13</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -5547,17 +5547,17 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>VW_6</t>
+          <t>VW_57</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>WO_61</t>
+          <t>VW_62</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>WO_87</t>
+          <t>WO_55</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -5588,17 +5588,17 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>WO_33</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>WO_24</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>WO_13</t>
+          <t>WO_53</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
@@ -5623,17 +5623,17 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>WO_33</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>WO_61</t>
+          <t>WO_45</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>WO_13</t>
+          <t>WO_75</t>
         </is>
       </c>
       <c r="H129" t="inlineStr"/>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -499,12 +499,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>VW_62</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>WO_75</t>
+          <t>WO_53</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -529,17 +529,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>WO_23</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>VW_70</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>VW_21</t>
+          <t>VW_3</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -564,17 +564,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>VW_6</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>WO_45</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>WO_53</t>
+          <t>WO_41</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -599,17 +599,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>VW_23</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>WO_52</t>
+          <t>VW_62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>WO_13</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -634,17 +634,17 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>WO_26</t>
+          <t>VW_12</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>VW_21</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -675,17 +675,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>WO_61</t>
+          <t>VW_12</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>VW_3</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -716,17 +716,17 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WO_36</t>
+          <t>WO_11</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>WO_52</t>
+          <t>WO_61</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>WO_50</t>
+          <t>VW_13</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -757,17 +757,17 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>VW_23</t>
+          <t>WO_11</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>WO_49</t>
+          <t>VW_13</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -798,17 +798,17 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>VW_9</t>
+          <t>WO_11</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>WO_38</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>WO_13</t>
+          <t>VW_15</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -839,17 +839,17 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>VW_27</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>WO_77</t>
+          <t>WO_24</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>WO_49</t>
+          <t>VW_15</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -880,17 +880,17 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>VW_9</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>WO_26</t>
+          <t>VW_18</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>VW_72</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -921,17 +921,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>WO_51</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>VW_18</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>VW_3</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -962,17 +962,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>WO_27</t>
+          <t>VW_20</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>WO_71</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>WO_75</t>
+          <t>WO_53</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1003,17 +1003,17 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>WO_27</t>
+          <t>VW_20</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>WO_79</t>
+          <t>VW_62</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>WO_1</t>
+          <t>VW_72</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1044,12 +1044,12 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>VW_57</t>
+          <t>VW_27</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>WO_26</t>
+          <t>WO_61</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1085,17 +1085,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>VW_20</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>WO_45</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>WO_13</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1126,17 +1126,17 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>WO_7</t>
+          <t>VW_23</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>VW_35</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>VW_25</t>
+          <t>VW_39</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1167,17 +1167,17 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>VW_9</t>
+          <t>VW_23</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>WO_52</t>
+          <t>VW_35</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>WO_1</t>
+          <t>WO_41</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1208,17 +1208,17 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>WO_11</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>WO_52</t>
+          <t>WO_45</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>VW_25</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1249,17 +1249,17 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WO_27</t>
+          <t>WO_7</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>WO_26</t>
+          <t>VW_35</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>WO_49</t>
+          <t>VW_25</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1290,17 +1290,17 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>WO_69</t>
+          <t>VW_27</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>WO_79</t>
+          <t>VW_18</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>VW_3</t>
+          <t>WO_75</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1331,17 +1331,17 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>WO_11</t>
+          <t>VW_27</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>VW_72</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1413,17 +1413,17 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>VW_20</t>
+          <t>VW_46</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>VW_62</t>
+          <t>VW_35</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>WO_20</t>
+          <t>VW_3</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1454,17 +1454,17 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>VW_57</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>WO_38</t>
+          <t>VW_12</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>WO_1</t>
+          <t>WO_53</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1495,17 +1495,17 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>WO_27</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>WO_79</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>WO_49</t>
+          <t>WO_50</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1536,17 +1536,17 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>VW_9</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>WO_79</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>WO_16</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1577,17 +1577,17 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>VW_46</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>WO_52</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>VW_25</t>
+          <t>WO_49</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1618,17 +1618,17 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>WO_45</t>
+          <t>VW_70</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>WO_49</t>
+          <t>VW_33</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1659,17 +1659,17 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WO_23</t>
+          <t>WO_33</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>WO_45</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>VW_13</t>
+          <t>VW_33</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1700,17 +1700,17 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_85</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>WO_24</t>
+          <t>VW_35</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>VW_25</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1741,17 +1741,17 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WO_51</t>
+          <t>WO_85</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>WO_71</t>
+          <t>VW_35</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1782,17 +1782,17 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>VW_27</t>
+          <t>WO_7</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>VW_62</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>WO_50</t>
+          <t>VW_39</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1823,17 +1823,17 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>VW_46</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>WO_77</t>
+          <t>VW_70</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>VW_33</t>
+          <t>VW_39</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WO_51</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>WO_38</t>
+          <t>VW_70</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>WO_50</t>
+          <t>WO_20</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1905,17 +1905,17 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>VW_57</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>VW_18</t>
+          <t>WO_52</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>VW_72</t>
+          <t>WO_49</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1946,17 +1946,17 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>VW_27</t>
+          <t>VW_46</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>VW_70</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>WO_13</t>
+          <t>VW_3</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1992,12 +1992,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>VW_12</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>VW_3</t>
+          <t>WO_53</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2028,17 +2028,17 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>WO_51</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>VW_62</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>WO_41</t>
+          <t>WO_55</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -2069,17 +2069,17 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>WO_51</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>WO_20</t>
+          <t>WO_55</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>VW_9</t>
+          <t>VW_23</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>WO_81</t>
+          <t>WO_55</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2151,17 +2151,17 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>WO_7</t>
+          <t>VW_23</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>WO_26</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>WO_13</t>
+          <t>WO_87</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2192,17 +2192,17 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>WO_27</t>
+          <t>VW_57</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>WO_38</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>WO_87</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2233,17 +2233,17 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>WO_23</t>
+          <t>VW_57</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>WO_53</t>
+          <t>WO_16</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2274,17 +2274,17 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>VW_27</t>
+          <t>VW_6</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>WO_45</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>WO_1</t>
+          <t>VW_25</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2315,17 +2315,17 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>WO_7</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>VW_62</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>WO_41</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2356,17 +2356,17 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>WO_27</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>WO_79</t>
+          <t>VW_62</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>WO_87</t>
+          <t>WO_49</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2397,17 +2397,17 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>WO_69</t>
+          <t>WO_23</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>VW_70</t>
+          <t>WO_71</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>WO_16</t>
+          <t>VW_33</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -2432,7 +2432,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>WO_23</t>
+          <t>VW_20</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>WO_75</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -2467,17 +2467,17 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>VW_27</t>
+          <t>WO_51</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>VW_18</t>
+          <t>VW_70</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>WO_53</t>
+          <t>WO_20</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2508,17 +2508,17 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>WO_33</t>
+          <t>WO_51</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>WO_71</t>
+          <t>VW_70</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>VW_33</t>
+          <t>WO_41</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2549,17 +2549,17 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>VW_20</t>
+          <t>VW_46</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>WO_45</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>WO_75</t>
+          <t>VW_72</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2590,17 +2590,17 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>VW_6</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>WO_38</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>WO_81</t>
+          <t>VW_72</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2631,17 +2631,17 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>VW_23</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>VW_70</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>WO_75</t>
+          <t>WO_16</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2672,17 +2672,17 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>WO_38</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>VW_33</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2713,17 +2713,17 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>VW_9</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>VW_70</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_55</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2754,17 +2754,17 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>WO_36</t>
+          <t>VW_9</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>WO_61</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>VW_13</t>
+          <t>WO_75</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2795,17 +2795,17 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>WO_11</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>VW_70</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>WO_81</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2836,17 +2836,17 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>VW_57</t>
+          <t>WO_85</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>VW_62</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>VW_21</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2877,17 +2877,17 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>WO_23</t>
+          <t>WO_11</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>WO_38</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>VW_3</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2918,17 +2918,17 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>VW_6</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>WO_75</t>
+          <t>WO_13</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -2959,17 +2959,17 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>VW_20</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>WO_77</t>
+          <t>WO_52</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>WO_20</t>
+          <t>WO_13</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3000,17 +3000,17 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>WO_36</t>
+          <t>VW_57</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>VW_35</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_16</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3041,12 +3041,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>VW_57</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>VW_35</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -3082,17 +3082,17 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>WO_11</t>
+          <t>VW_6</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>VW_35</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>VW_25</t>
+          <t>WO_20</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3123,17 +3123,17 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>WO_7</t>
+          <t>WO_27</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>WO_24</t>
+          <t>VW_12</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>VW_21</t>
+          <t>WO_20</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3164,12 +3164,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>WO_69</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>WO_77</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -3205,17 +3205,17 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>VW_6</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>VW_35</t>
+          <t>WO_79</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>WO_41</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3246,17 +3246,17 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>WO_27</t>
+          <t>WO_23</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>VW_70</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>WO_41</t>
+          <t>WO_20</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3287,17 +3287,17 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>WO_7</t>
+          <t>WO_23</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>VW_70</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>WO_16</t>
+          <t>VW_15</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3328,17 +3328,17 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>WO_33</t>
+          <t>WO_27</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>VW_70</t>
+          <t>WO_24</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>VW_25</t>
+          <t>VW_39</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3369,17 +3369,17 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>VW_57</t>
+          <t>WO_27</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>WO_24</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>WO_87</t>
+          <t>VW_39</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3410,17 +3410,17 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>VW_20</t>
+          <t>WO_85</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>WO_26</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>VW_33</t>
+          <t>WO_50</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3451,17 +3451,17 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>WO_11</t>
+          <t>VW_46</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>VW_18</t>
+          <t>WO_26</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>VW_13</t>
+          <t>VW_39</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3492,17 +3492,17 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>WO_27</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>WO_38</t>
+          <t>WO_52</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>VW_72</t>
+          <t>VW_3</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3533,17 +3533,17 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>WO_27</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>WO_79</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>WO_49</t>
+          <t>VW_3</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3574,17 +3574,17 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>WO_33</t>
+          <t>VW_6</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>VW_3</t>
+          <t>WO_87</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3615,17 +3615,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>VW_9</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>VW_62</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>WO_87</t>
+          <t>WO_75</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3656,17 +3656,17 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>VW_27</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>WO_52</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>WO_50</t>
+          <t>VW_25</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -3691,17 +3691,17 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>VW_20</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>WO_20</t>
+          <t>WO_81</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -3726,17 +3726,17 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_33</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>WO_49</t>
+          <t>VW_15</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3767,17 +3767,17 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_33</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>WO_13</t>
+          <t>VW_15</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3813,12 +3813,12 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>WO_77</t>
+          <t>WO_45</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>VW_72</t>
+          <t>WO_87</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3849,17 +3849,17 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>WO_11</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>WO_71</t>
+          <t>VW_12</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -3890,17 +3890,17 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>VW_9</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>WO_52</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>WO_13</t>
+          <t>WO_41</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -3931,17 +3931,17 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>WO_7</t>
+          <t>VW_27</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>VW_18</t>
+          <t>WO_38</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>WO_41</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -3972,17 +3972,17 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>WO_23</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>WO_24</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>WO_81</t>
+          <t>VW_33</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4013,17 +4013,17 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>VW_9</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>WO_26</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>VW_21</t>
+          <t>VW_15</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4054,17 +4054,17 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>WO_45</t>
+          <t>WO_24</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>WO_41</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4095,17 +4095,17 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>VW_23</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>WO_61</t>
+          <t>WO_24</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>WO_55</t>
+          <t>VW_13</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4136,17 +4136,17 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>VW_20</t>
+          <t>VW_23</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>WO_45</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>WO_13</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4177,17 +4177,17 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>WO_45</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>VW_13</t>
+          <t>WO_50</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4218,17 +4218,17 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>VW_20</t>
+          <t>VW_57</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>WO_53</t>
+          <t>WO_49</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4259,17 +4259,17 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>VW_57</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>WO_24</t>
+          <t>VW_12</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>WO_16</t>
+          <t>WO_49</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4300,17 +4300,17 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>WO_51</t>
+          <t>VW_23</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>VW_25</t>
+          <t>WO_50</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4341,17 +4341,17 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>VW_6</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>VW_18</t>
+          <t>WO_26</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>WO_16</t>
+          <t>WO_50</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4382,17 +4382,17 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_51</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>WO_61</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>VW_21</t>
+          <t>VW_15</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4423,17 +4423,17 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>WO_51</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>WO_24</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>VW_33</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4464,17 +4464,17 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>WO_69</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>WO_26</t>
+          <t>WO_52</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>WO_87</t>
+          <t>VW_72</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4505,17 +4505,17 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>WO_69</t>
+          <t>WO_27</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>WO_61</t>
+          <t>WO_52</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4546,17 +4546,17 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>WO_26</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>WO_53</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4587,17 +4587,17 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>VW_23</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>WO_26</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>WO_20</t>
+          <t>WO_53</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4628,17 +4628,17 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>WO_51</t>
+          <t>WO_69</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>WO_71</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>VW_25</t>
+          <t>WO_55</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4669,17 +4669,17 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>WO_33</t>
+          <t>WO_7</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>VW_18</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>VW_13</t>
         </is>
       </c>
       <c r="H105" t="inlineStr"/>
@@ -4704,17 +4704,17 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>WO_69</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>VW_35</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>WO_55</t>
+          <t>WO_50</t>
         </is>
       </c>
       <c r="H106" t="inlineStr"/>
@@ -4739,17 +4739,17 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>WO_33</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>WO_61</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4780,17 +4780,17 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>WO_7</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>WO_61</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>WO_41</t>
+          <t>WO_49</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4821,17 +4821,17 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>VW_9</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>WO_71</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>VW_33</t>
+          <t>WO_16</t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
@@ -4856,17 +4856,17 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>WO_33</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>WO_71</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>WO_41</t>
+          <t>WO_49</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
@@ -4891,17 +4891,17 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>WO_69</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>WO_79</t>
+          <t>VW_62</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>WO_41</t>
+          <t>VW_39</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -4932,17 +4932,17 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>VW_9</t>
+          <t>WO_69</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>VW_18</t>
+          <t>WO_24</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>WO_87</t>
+          <t>WO_16</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -4973,17 +4973,17 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>WO_7</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>VW_18</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>WO_81</t>
+          <t>VW_13</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5014,17 +5014,17 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>VW_23</t>
+          <t>WO_7</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>WO_77</t>
+          <t>VW_18</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>VW_21</t>
+          <t>VW_13</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5055,17 +5055,17 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>WO_23</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>VW_35</t>
+          <t>WO_71</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>WO_55</t>
+          <t>VW_33</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -5096,17 +5096,17 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>WO_23</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>WO_71</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>WO_50</t>
+          <t>VW_33</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -5137,17 +5137,17 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>WO_69</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>WO_41</t>
+          <t>WO_75</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -5178,17 +5178,17 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>WO_79</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>WO_50</t>
+          <t>WO_75</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -5219,17 +5219,17 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_85</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>WO_24</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>WO_1</t>
+          <t>VW_72</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -5260,17 +5260,17 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>WO_27</t>
+          <t>WO_69</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>WO_24</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>VW_13</t>
+          <t>WO_81</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -5301,17 +5301,17 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_23</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>WO_61</t>
+          <t>WO_79</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>WO_53</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -5342,12 +5342,12 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>VW_20</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>WO_79</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>WO_36</t>
+          <t>WO_69</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -5393,7 +5393,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>VW_3</t>
+          <t>WO_81</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -5424,7 +5424,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>WO_36</t>
+          <t>VW_23</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>WO_55</t>
+          <t>WO_81</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -5465,17 +5465,17 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>WO_51</t>
+          <t>WO_85</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>WO_79</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>WO_1</t>
+          <t>VW_25</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -5506,17 +5506,17 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>VW_23</t>
+          <t>WO_85</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>WO_38</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>VW_13</t>
+          <t>WO_81</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -5547,17 +5547,17 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>VW_57</t>
+          <t>WO_33</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>VW_62</t>
+          <t>WO_61</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>WO_55</t>
+          <t>WO_87</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -5588,17 +5588,17 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_33</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>WO_24</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>WO_53</t>
+          <t>WO_13</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
@@ -5623,17 +5623,17 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_33</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>WO_45</t>
+          <t>WO_61</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>WO_75</t>
+          <t>WO_13</t>
         </is>
       </c>
       <c r="H129" t="inlineStr"/>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -494,17 +494,17 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>WO_36</t>
+          <t>WO_11</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>WO_53</t>
+          <t>WO_71</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -529,17 +529,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>VW_3</t>
+          <t>WO_45</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -564,17 +564,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>WO_53</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>WO_41</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -599,17 +599,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>VW_15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>VW_62</t>
+          <t>WO_81</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>WO_13</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -634,7 +634,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_23</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -675,7 +675,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -694,7 +694,7 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -716,12 +716,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WO_11</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>WO_61</t>
+          <t>WO_81</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -757,12 +757,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>WO_11</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>WO_69</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -798,26 +798,26 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>WO_11</t>
+          <t>VW_15</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>VW_23</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>WO_24</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -839,26 +839,26 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>VW_15</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>WO_24</t>
+          <t>VW_23</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>VW_13</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -880,22 +880,22 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>VW_9</t>
+          <t>VW_18</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>VW_18</t>
+          <t>VW_27</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>WO_1</t>
+          <t>WO_26</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -921,22 +921,22 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>VW_18</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>VW_18</t>
+          <t>VW_27</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_26</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -962,22 +962,22 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>WO_49</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>WO_81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>VW_20</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>VW_8</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>WO_53</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1003,22 +1003,22 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>WO_11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>WO_81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>VW_20</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>VW_62</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>VW_72</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1044,22 +1044,22 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>VW_27</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>WO_61</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>VW_21</t>
+          <t>VW_13</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1085,22 +1085,22 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>VW_20</t>
+          <t>VW_15</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>WO_45</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>VW_21</t>
+          <t>WO_24</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1126,26 +1126,26 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
+          <t>WO_49</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>VW_23</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>VW_8</t>
-        </is>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>WO_45</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1167,26 +1167,26 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>WO_49</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>VW_23</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>VW_35</t>
-        </is>
-      </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>WO_41</t>
+          <t>WO_45</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1208,12 +1208,12 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>WO_45</t>
+          <t>WO_85</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1249,12 +1249,12 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WO_7</t>
+          <t>WO_33</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>VW_35</t>
+          <t>VW_12</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1290,22 +1290,22 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>VW_32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>VW_27</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>VW_18</t>
-        </is>
-      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>WO_75</t>
+          <t>VW_13</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1331,22 +1331,22 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>WO_13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>VW_27</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>VW_5</t>
-        </is>
-      </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>VW_21</t>
+          <t>WO_71</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1358,40 +1358,40 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>VW_3_M_Huu</t>
+          <t>VW_31_M_Pau</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VW_3</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_16</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>VW_3</t>
+          <t>VW_13</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
@@ -1399,40 +1399,40 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>VW_3_V_Cla</t>
+          <t>VW_31_V_Jan</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VW_3</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>WO_79</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>VW_35</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>VW_3</t>
+          <t>WO_71</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -1440,31 +1440,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>VW_31_M_Pau</t>
+          <t>VW_32_M_Mic</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>VW_33</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>WO_53</t>
+          <t>VW_3</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1481,31 +1481,31 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>VW_31_V_Jan</t>
+          <t>VW_32_V_Wen</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>WO_77</t>
+          <t>VW_33</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>WO_50</t>
+          <t>VW_9</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1522,31 +1522,31 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>VW_32_M_Mic</t>
+          <t>VW_33_V_Het</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>VW_33</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>VW_39</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>VW_33</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
@@ -1563,31 +1563,31 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>VW_32_V_Wen</t>
+          <t>VW_33_V_Tru</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>VW_33</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>VW_39</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>VW_33</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>WO_49</t>
+          <t>VW_25</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="I29" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -1604,40 +1604,40 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>VW_33_V_Het</t>
+          <t>VW_35_M_Roe</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VW_33</t>
+          <t>VW_35</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>VW_46</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>VW_70</t>
+          <t>VW_35</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>VW_33</t>
+          <t>VW_72</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
@@ -1645,40 +1645,40 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>VW_33_V_Tru</t>
+          <t>VW_35_V_Ros</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VW_33</t>
+          <t>VW_35</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>WO_33</t>
+          <t>VW_46</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>VW_35</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>VW_33</t>
+          <t>WO_71</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
@@ -1686,40 +1686,40 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>VW_35_M_Roe</t>
+          <t>VW_39_M_Bar</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VW_35</t>
+          <t>VW_39</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>VW_39</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>VW_35</t>
+          <t>WO_81</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>VW_25</t>
+          <t>VW_62</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -1727,40 +1727,40 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>VW_35_V_Ros</t>
+          <t>VW_39_V_Ann</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VW_35</t>
+          <t>VW_39</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>VW_39</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>VW_35</t>
+          <t>WO_61</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>WO_1</t>
+          <t>VW_9</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -1768,31 +1768,31 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>VW_39_M_Bar</t>
+          <t>VW_3_M_Huu</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>VW_3</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>WO_7</t>
+          <t>WO_11</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>WO_27</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>VW_3</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1801,7 +1801,7 @@
         </is>
       </c>
       <c r="I34" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35">
@@ -1809,31 +1809,31 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>VW_39_V_Ann</t>
+          <t>VW_3_V_Cla</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>VW_3</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>VW_70</t>
+          <t>WO_27</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>VW_3</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="I35" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -1869,12 +1869,12 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>VW_70</t>
+          <t>WO_61</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>WO_20</t>
+          <t>VW_20</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="I36" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -1910,12 +1910,12 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>WO_52</t>
+          <t>VW_33</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>WO_49</t>
+          <t>VW_20</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1924,7 +1924,7 @@
         </is>
       </c>
       <c r="I37" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -1951,12 +1951,12 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>VW_70</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>VW_3</t>
+          <t>VW_57</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="I38" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -1992,12 +1992,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>WO_7</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>WO_53</t>
+          <t>VW_57</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2006,7 +2006,7 @@
         </is>
       </c>
       <c r="I39" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -2014,36 +2014,36 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>VW_5_M_Car</t>
+          <t>VW_51_M_Coe</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>WO_51</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>WO_53</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>WO_55</t>
+          <t>VW_70</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -2055,36 +2055,36 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>VW_5_V_Jud</t>
+          <t>VW_51_V_Eli</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>WO_51</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>VW_33</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>WO_55</t>
+          <t>VW_20</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -2096,40 +2096,40 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>VW_51_M_Coe</t>
+          <t>VW_57_M_Lou</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>VW_57</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>VW_23</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>WO_87</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>WO_55</t>
+          <t>VW_57</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="I42" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -2137,40 +2137,40 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>VW_51_V_Eli</t>
+          <t>VW_57_V_Ann</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>VW_57</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
+          <t>WO_41</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
           <t>VW_23</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>VW_51</t>
-        </is>
-      </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>WO_87</t>
+          <t>VW_57</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
@@ -2178,40 +2178,40 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>VW_57_M_Lou</t>
+          <t>VW_5_M_Car</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VW_57</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>VW_57</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>WO_38</t>
+          <t>WO_87</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>WO_87</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45">
@@ -2219,40 +2219,40 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>VW_57_V_Ann</t>
+          <t>VW_5_V_Jud</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VW_57</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>VW_57</t>
+          <t>VW_32</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>WO_16</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -2260,40 +2260,40 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>VW_6_V_Len</t>
+          <t>VW_62_M_Rob</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VW_6</t>
+          <t>VW_62</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>VW_6</t>
+          <t>WO_33</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>WO_45</t>
+          <t>WO_27</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>VW_25</t>
+          <t>VW_62</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -2301,11 +2301,11 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>VW_62_M_Rob</t>
+          <t>VW_62_V_Ale</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2315,22 +2315,22 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>WO_81</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>VW_62</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>VW_21</t>
-        </is>
-      </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -2342,52 +2342,46 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>VW_62_V_Ale</t>
+          <t>VW_68_M_Chr</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>VW_62</t>
+          <t>VW_68</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>WO_27</t>
+          <t>WO_20</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>VW_62</t>
+          <t>WO_51</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>WO_49</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Hoofd</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
-        <v>6</v>
-      </c>
+          <t>WO_24</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>VW_68_M_Chr</t>
+          <t>VW_68_V_Mar</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2397,17 +2391,17 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>WO_23</t>
+          <t>WO_20</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>WO_71</t>
+          <t>WO_51</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>VW_33</t>
+          <t>WO_26</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -2418,35 +2412,41 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>VW_68_V_Mar</t>
+          <t>VW_6_V_Len</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>VW_68</t>
+          <t>VW_6</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>VW_20</t>
+          <t>WO_33</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>WO_71</t>
+          <t>VW_6</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>WO_75</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
+          <t>VW_25</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Hoofd</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2467,26 +2467,26 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>WO_51</t>
+          <t>WO_79</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>VW_27</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>VW_70</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>WO_20</t>
-        </is>
-      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52">
@@ -2508,26 +2508,26 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>WO_51</t>
+          <t>WO_79</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>WO_53</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>VW_70</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>WO_41</t>
-        </is>
-      </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="53">
@@ -2549,12 +2549,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>VW_15</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2590,12 +2590,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>WO_38</t>
+          <t>VW_8</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2631,7 +2631,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2641,7 +2641,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>WO_16</t>
+          <t>WO_26</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>VW_21</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2691,7 +2691,7 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57">
@@ -2713,22 +2713,22 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
+          <t>VW_39</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>WO_40</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>VW_9</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>VW_5</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>WO_55</t>
-        </is>
-      </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -2754,22 +2754,22 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
+          <t>VW_32</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>WO_40</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>VW_9</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>VW_5</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>WO_75</t>
-        </is>
-      </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -2781,16 +2781,16 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>WO_1_M_And</t>
+          <t>WO_11_M_Bas</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>WO_1</t>
+          <t>WO_11</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2800,21 +2800,21 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>WO_1</t>
+          <t>WO_52</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -2822,40 +2822,40 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>WO_1_V_Bir</t>
+          <t>WO_13_M_Lau</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>WO_1</t>
+          <t>WO_13</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>WO_13</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>VW_62</t>
+          <t>VW_35</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>WO_1</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -2863,31 +2863,31 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>WO_11_M_Bas</t>
+          <t>WO_13_V_Sim</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>WO_11</t>
+          <t>WO_13</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>WO_11</t>
+          <t>WO_13</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>WO_38</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>VW_3</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62">
@@ -2904,36 +2904,36 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>WO_13_M_Lau</t>
+          <t>WO_16_M_Fre</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>WO_13</t>
+          <t>WO_16</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>WO_16</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>WO_85</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>WO_13</t>
+          <t>WO_52</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -2945,36 +2945,36 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>WO_13_V_Sim</t>
+          <t>WO_16_V_Lie</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>WO_13</t>
+          <t>WO_16</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>VW_20</t>
+          <t>WO_16</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>WO_69</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>WO_52</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>WO_13</t>
-        </is>
-      </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -2986,31 +2986,31 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>WO_16_M_Fre</t>
+          <t>WO_1_M_And</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>WO_16</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>VW_57</t>
+          <t>WO_38</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>WO_16</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3019,7 +3019,7 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -3027,31 +3027,31 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>WO_16_V_Lie</t>
+          <t>WO_1_V_Bir</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>WO_16</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>VW_57</t>
+          <t>VW_46</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>VW_32</t>
+          <t>VW_23</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>WO_16</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="66">
@@ -3082,22 +3082,22 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>VW_6</t>
+          <t>WO_20</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>VW_8</t>
+          <t>VW_35</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>WO_20</t>
+          <t>WO_75</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -3123,22 +3123,22 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>WO_27</t>
+          <t>WO_20</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>VW_12</t>
+          <t>VW_35</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>WO_20</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -3169,12 +3169,12 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>VW_23</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>VW_72</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3183,7 +3183,7 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="69">
@@ -3210,12 +3210,12 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>WO_79</t>
+          <t>WO_27</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>WO_41</t>
+          <t>VW_20</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3224,7 +3224,7 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70">
@@ -3251,12 +3251,12 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>VW_70</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>WO_20</t>
+          <t>VW_9</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3292,12 +3292,12 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>WO_77</t>
+          <t>VW_31</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>VW_9</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3328,26 +3328,26 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>WO_27</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>WO_55</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>WO_24</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>VW_39</t>
-        </is>
-      </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -3369,26 +3369,26 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>WO_27</t>
+          <t>WO_21</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>VW_35</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>WO_24</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>VW_39</t>
-        </is>
-      </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74">
@@ -3410,22 +3410,22 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>WO_85</t>
+          <t>VW_46</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>VW_35</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>WO_26</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>WO_50</t>
-        </is>
-      </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -3451,22 +3451,22 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>VW_46</t>
+          <t>WO_41</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
+          <t>WO_53</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>WO_26</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>VW_39</t>
-        </is>
-      </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -3492,14 +3492,14 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
+          <t>WO_23</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
           <t>WO_27</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>WO_52</t>
-        </is>
-      </c>
       <c r="G76" t="inlineStr">
         <is>
           <t>VW_3</t>
@@ -3507,11 +3507,11 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
@@ -3533,14 +3533,14 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
+          <t>WO_21</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
           <t>WO_27</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>WO_79</t>
-        </is>
-      </c>
       <c r="G77" t="inlineStr">
         <is>
           <t>VW_3</t>
@@ -3548,11 +3548,11 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
@@ -3574,26 +3574,26 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>VW_6</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
+          <t>VW_12</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>WO_32</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>WO_87</t>
-        </is>
-      </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
@@ -3615,26 +3615,26 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>VW_9</t>
+          <t>WO_38</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>VW_12</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>WO_32</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>WO_75</t>
-        </is>
-      </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
@@ -3656,17 +3656,17 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>VW_27</t>
+          <t>WO_13</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>WO_52</t>
+          <t>WO_55</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>VW_25</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -3691,17 +3691,17 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>WO_49</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>WO_55</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>WO_81</t>
+          <t>VW_13</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -3731,12 +3731,12 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>WO_61</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3772,12 +3772,12 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>WO_77</t>
+          <t>WO_61</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>WO_24</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3808,26 +3808,26 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
+          <t>WO_38</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>VW_6</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>WO_36</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>WO_45</t>
-        </is>
-      </c>
-      <c r="G84" t="inlineStr">
-        <is>
-          <t>WO_87</t>
-        </is>
-      </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85">
@@ -3849,26 +3849,26 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
+          <t>WO_33</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>VW_6</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>WO_36</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>VW_12</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>WO_1</t>
-        </is>
-      </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86">
@@ -3890,26 +3890,26 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>VW_9</t>
+          <t>WO_38</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>WO_32</t>
+          <t>WO_87</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>WO_41</t>
+          <t>VW_25</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="87">
@@ -3931,26 +3931,26 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>VW_27</t>
+          <t>WO_38</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>WO_38</t>
+          <t>WO_87</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>WO_41</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
@@ -3972,22 +3972,22 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
+          <t>WO_13</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
           <t>WO_40</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>WO_32</t>
-        </is>
-      </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>VW_33</t>
+          <t>VW_3</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -4013,22 +4013,22 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
+          <t>WO_13</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
           <t>WO_40</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>WO_26</t>
-        </is>
-      </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>VW_3</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -4054,26 +4054,26 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>WO_41</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>WO_24</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>WO_41</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
@@ -4095,26 +4095,26 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>WO_36</t>
+          <t>WO_41</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>WO_24</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>VW_13</t>
+          <t>WO_75</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
@@ -4136,22 +4136,22 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>VW_23</t>
+          <t>WO_49</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
+          <t>VW_31</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>WO_45</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>WO_13</t>
-        </is>
-      </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="I92" t="n">
@@ -4177,22 +4177,22 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>WO_36</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
+          <t>VW_31</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>WO_45</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>WO_50</t>
-        </is>
-      </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="I93" t="n">
@@ -4218,26 +4218,26 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
+          <t>WO_49</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>VW_31</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>VW_57</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>VW_32</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>WO_49</t>
-        </is>
-      </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95">
@@ -4259,26 +4259,26 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
+          <t>WO_49</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>VW_8</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>VW_57</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>VW_12</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>WO_49</t>
-        </is>
-      </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96">
@@ -4300,12 +4300,12 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>VW_23</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>WO_77</t>
+          <t>VW_12</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4341,12 +4341,12 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>VW_6</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>WO_26</t>
+          <t>VW_12</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4382,22 +4382,22 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
+          <t>VW_39</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
           <t>WO_51</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>VW_8</t>
-        </is>
-      </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>VW_15</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="I98" t="n">
@@ -4423,22 +4423,22 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
+          <t>VW_39</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
           <t>WO_51</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>VW_5</t>
-        </is>
-      </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>VW_21</t>
+          <t>VW_25</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="I99" t="n">
@@ -4464,22 +4464,22 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>WO_69</t>
+          <t>VW_43</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
+          <t>WO_51</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
           <t>WO_52</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>VW_72</t>
-        </is>
-      </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="I100" t="n">
@@ -4505,22 +4505,22 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>WO_27</t>
+          <t>WO_23</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
+          <t>VW_23</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
           <t>WO_52</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>VW_21</t>
-        </is>
-      </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="I101" t="n">
@@ -4546,22 +4546,22 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>WO_36</t>
+          <t>WO_41</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>WO_26</t>
+          <t>WO_53</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>WO_53</t>
+          <t>WO_75</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="I102" t="n">
@@ -4587,22 +4587,22 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>WO_36</t>
+          <t>WO_41</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>WO_26</t>
+          <t>WO_53</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>WO_53</t>
+          <t>WO_75</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="I103" t="n">
@@ -4628,22 +4628,22 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>WO_69</t>
+          <t>WO_20</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>WO_71</t>
+          <t>WO_55</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>WO_55</t>
+          <t>VW_13</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="I104" t="n">
@@ -4669,17 +4669,17 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
+          <t>VW_18</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
           <t>WO_7</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>VW_18</t>
-        </is>
-      </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>VW_13</t>
+          <t>WO_50</t>
         </is>
       </c>
       <c r="H105" t="inlineStr"/>
@@ -4704,12 +4704,12 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>WO_21</t>
+          <t>VW_18</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>VW_35</t>
+          <t>WO_7</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4739,7 +4739,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>WO_79</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4749,7 +4749,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>WO_1</t>
+          <t>VW_62</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4780,7 +4780,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>WO_7</t>
+          <t>WO_16</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4790,7 +4790,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>WO_49</t>
+          <t>VW_62</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4821,17 +4821,17 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>VW_9</t>
+          <t>WO_13</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>WO_71</t>
+          <t>WO_55</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>WO_16</t>
+          <t>VW_62</t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
@@ -4856,17 +4856,17 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>WO_40</t>
+          <t>WO_13</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>VW_6</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>WO_49</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
@@ -4891,22 +4891,22 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
+          <t>VW_15</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
           <t>WO_69</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>VW_62</t>
-        </is>
-      </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="I111" t="n">
@@ -4932,22 +4932,22 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
+          <t>VW_15</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
           <t>WO_69</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>WO_24</t>
-        </is>
-      </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>WO_16</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="I112" t="n">
@@ -4959,36 +4959,36 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>WO_7_M_San</t>
+          <t>WO_71_M_Kar</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>WO_7</t>
+          <t>WO_71</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>WO_7</t>
+          <t>WO_23</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>VW_18</t>
+          <t>VW_27</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>VW_13</t>
+          <t>WO_71</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="I113" t="n">
@@ -5000,36 +5000,36 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>WO_7_V_Mon</t>
+          <t>WO_71_V_Mar</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>WO_7</t>
+          <t>WO_71</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>WO_7</t>
+          <t>WO_20</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>VW_18</t>
+          <t>WO_51</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>VW_13</t>
+          <t>WO_71</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="I114" t="n">
@@ -5041,36 +5041,36 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>WO_71_M_Kar</t>
+          <t>WO_75_M_Jur</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>WO_71</t>
+          <t>WO_75</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>WO_23</t>
+          <t>WO_16</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>WO_71</t>
+          <t>WO_69</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>VW_33</t>
+          <t>WO_75</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="I115" t="n">
@@ -5082,36 +5082,36 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>WO_71_V_Mar</t>
+          <t>WO_75_V_Deb</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>WO_71</t>
+          <t>WO_75</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>WO_23</t>
+          <t>WO_16</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>WO_71</t>
+          <t>WO_7</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>VW_33</t>
+          <t>WO_75</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Na</t>
         </is>
       </c>
       <c r="I116" t="n">
@@ -5123,40 +5123,40 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>WO_75_M_Jur</t>
+          <t>WO_77_M_Twa</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>WO_75</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>VW_31</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>WO_40</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>WO_75</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="I117" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118">
@@ -5164,40 +5164,40 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>WO_75_V_Deb</t>
+          <t>WO_77_V_Maa</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>WO_75</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>VW_43</t>
+          <t>WO_77</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>WO_79</t>
+          <t>WO_69</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>WO_75</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="119">
@@ -5205,36 +5205,36 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>WO_77_M_Twa</t>
+          <t>WO_79_M_Rob</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>WO_77</t>
+          <t>WO_79</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
+          <t>WO_79</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
           <t>WO_85</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>WO_77</t>
-        </is>
-      </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>VW_72</t>
+          <t>WO_45</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="I119" t="n">
@@ -5246,36 +5246,36 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>WO_77_V_Maa</t>
+          <t>WO_79_V_Wie</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>WO_77</t>
+          <t>WO_79</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>WO_69</t>
+          <t>WO_79</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>WO_77</t>
+          <t>WO_85</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>WO_81</t>
+          <t>WO_52</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Hoofd</t>
+          <t>Voor</t>
         </is>
       </c>
       <c r="I120" t="n">
@@ -5287,31 +5287,31 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>WO_79_M_Rob</t>
+          <t>WO_7_M_San</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>WO_79</t>
+          <t>WO_7</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>WO_23</t>
+          <t>VW_18</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>WO_79</t>
+          <t>WO_7</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>VW_21</t>
+          <t>WO_50</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -5328,31 +5328,31 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>WO_79_V_Wie</t>
+          <t>WO_7_V_Mon</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>WO_79</t>
+          <t>WO_7</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>VW_20</t>
+          <t>VW_18</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>WO_79</t>
+          <t>WO_7</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>VW_39</t>
+          <t>WO_50</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5383,26 +5383,26 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>WO_69</t>
+          <t>VW_39</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>WO_81</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>WO_81</t>
+          <t>VW_70</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124">
@@ -5424,26 +5424,26 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>VW_23</t>
+          <t>VW_15</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>WO_24</t>
+          <t>WO_81</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>WO_81</t>
+          <t>VW_70</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125">
@@ -5465,26 +5465,26 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
+          <t>VW_51</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
           <t>WO_85</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>WO_79</t>
-        </is>
-      </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>VW_25</t>
+          <t>VW_70</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126">
@@ -5506,26 +5506,26 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
+          <t>WO_21</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
           <t>WO_85</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>WO_38</t>
-        </is>
-      </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>WO_81</t>
+          <t>WO_32</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Voor</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127">
@@ -5547,22 +5547,22 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>WO_33</t>
+          <t>WO_38</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>WO_61</t>
+          <t>WO_87</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>WO_87</t>
+          <t>VW_72</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Na</t>
+          <t>Hoofd</t>
         </is>
       </c>
       <c r="I127" t="n">
@@ -5588,17 +5588,17 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>WO_33</t>
+          <t>WO_38</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>WO_24</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>WO_13</t>
+          <t>VW_72</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
@@ -5623,17 +5623,17 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>WO_33</t>
+          <t>WO_38</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>WO_61</t>
+          <t>VW_21</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>WO_13</t>
+          <t>VW_72</t>
         </is>
       </c>
       <c r="H129" t="inlineStr"/>

--- a/Output.xlsx
+++ b/Output.xlsx
@@ -504,7 +504,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>WO_71</t>
+          <t>WO_36</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -644,7 +644,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>WO_1</t>
+          <t>VW_57</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>WO_79</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>WO_16</t>
+          <t>WO_79</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>VW_13</t>
+          <t>WO_71</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>VW_51</t>
+          <t>WO_23</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>VW_57</t>
+          <t>VW_25</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2243,7 +2243,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>VW_5</t>
+          <t>VW_72</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>WO_24</t>
+          <t>VW_5</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -2426,7 +2426,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>WO_33</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>VW_25</t>
+          <t>WO_24</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -3701,7 +3701,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>VW_13</t>
+          <t>WO_1</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -4505,7 +4505,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>WO_23</t>
+          <t>WO_33</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4739,7 +4739,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>WO_79</t>
+          <t>WO_16</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4942,7 +4942,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>WO_36</t>
+          <t>VW_13</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5219,7 +5219,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>WO_79</t>
+          <t>VW_51</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -5598,7 +5598,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>VW_72</t>
+          <t>VW_13</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
